--- a/database/products.xlsx
+++ b/database/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maa/Developer/uniStrathDev/dm207/DM937_VIP_Pepper_Robot/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B95DF1F-CAD7-CC45-BD69-9E61825D7CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734E4D3C-C066-7A4B-833E-CA7D7AE02D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2200" windowWidth="28040" windowHeight="17180" xr2:uid="{62A9CF12-A363-884C-9C31-F13710962CEF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -47,7 +47,13 @@
     <t>Barcode</t>
   </si>
   <si>
-    <t>Location</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -419,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3945A04-99A0-6141-92EF-57955EE96093}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,6 +445,12 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
